--- a/snorkel_end_to_end.xlsx
+++ b/snorkel_end_to_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ts\sideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1856B839-AA96-4A6A-BE07-57442C266B23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7BE9EC-671A-41F1-A370-EA8AD2A0AFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10920" activeTab="1" xr2:uid="{D86D1A60-7C9D-4B88-B813-E6FCD7408ED1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -190,10 +190,16 @@
     <t>All LFs &amp; Pre-labellers must be specified in config, and documentd in spreadsheet</t>
   </si>
   <si>
-    <t>LFs should not be defined with @labelling_function decorator - this can be added at runtime</t>
-  </si>
-  <si>
     <t>Negative LFs should have bod_positive &lt; 1%, bad_pred_neg &lt;1%, and neg_r &gt; 10% ?</t>
+  </si>
+  <si>
+    <t>LFs should be defined without @labelling_function decorator - this can be added at runtime</t>
+  </si>
+  <si>
+    <t>LFs should not be explicitly defined as alcohol type specific, allocation of LFs to type can be handled by cfg</t>
+  </si>
+  <si>
+    <t>LFs should follow naming convention lf_{label}_{short description of functionality} - all lowercase &amp; '_' for space</t>
   </si>
 </sst>
 </file>
@@ -963,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4058384C-0C95-4ABC-9132-44E6CCF1B9EB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -995,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1017,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
